--- a/Đánh giá đề tài lần 1- 2.xlsx
+++ b/Đánh giá đề tài lần 1- 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\CNPMNC-Nhom3\CNPMNC\CNPMNC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\CNPMNC-Nhóm 3\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB317B7A-9A04-470F-B986-CD12D77F8C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F287D943-AF78-4B6A-B0E6-F4043D250A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,21 +134,12 @@
     <t>Quản lý đơn hàng</t>
   </si>
   <si>
-    <t>Thống kê doanh số</t>
-  </si>
-  <si>
-    <t>Thống kê những hàng</t>
-  </si>
-  <si>
     <t>Chăm sóc khách hàng</t>
   </si>
   <si>
     <t>Quản lý website để</t>
   </si>
   <si>
-    <t>Quản lý các thông</t>
-  </si>
-  <si>
     <t>Quản lý khách hàng</t>
   </si>
   <si>
@@ -207,6 +198,15 @@
   </si>
   <si>
     <t>Đăng nhập/ Đăng xuất</t>
+  </si>
+  <si>
+    <t>Thống kê hàng tồn kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thống kê doanh số </t>
+  </si>
+  <si>
+    <t>Quản lý các thông tin sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -352,6 +352,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,9 +367,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,13 +714,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -820,7 +820,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -830,23 +830,23 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -947,13 +947,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -963,7 +963,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
@@ -996,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -1014,10 +1014,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -1032,10 +1032,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -1045,23 +1045,23 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="5">
         <v>2</v>
@@ -1076,10 +1076,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
@@ -1094,10 +1094,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
@@ -1112,10 +1112,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -1125,23 +1125,23 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
@@ -1151,14 +1151,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
@@ -1171,11 +1171,11 @@
       <c r="A30" s="5">
         <v>3</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>40</v>
+      <c r="B30" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D30" s="5">
         <v>2</v>
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/Đánh giá đề tài lần 1- 2.xlsx
+++ b/Đánh giá đề tài lần 1- 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\CNPMNC-Nhóm 3\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F287D943-AF78-4B6A-B0E6-F4043D250A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A974B-AA05-4B3E-917E-7C26993B7CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,68 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>ID Story</t>
   </si>
   <si>
-    <t>User Story</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
     <t>Story Point</t>
   </si>
   <si>
-    <t>Actor: Là khách hàng vãng lai</t>
-  </si>
-  <si>
-    <t>Actor: Là khách hàng chính thức</t>
-  </si>
-  <si>
-    <t>Actor: Là nhân viên bán hàng tại quầy</t>
-  </si>
-  <si>
-    <t>Actor: Là nhân viên quản lý website</t>
-  </si>
-  <si>
-    <t>Actor: Là quản lý cửa hàng</t>
-  </si>
-  <si>
     <t>Story name</t>
   </si>
   <si>
-    <t>Muốn tra cứu thông tin về chương trình khuyến mãi và ưu đãi trên website để lựa chọn sản phẩm phù hợp</t>
-  </si>
-  <si>
-    <t>Muốn liên hệ với cửa hàng thông qua website để đặt câu hỏi hoặc khiếu nại về sản phẩm và dịch vụ</t>
-  </si>
-  <si>
-    <t>Muốn đăng ký tài khoản trên website để nhận được các thông tin khuyến mãi và giảm giá</t>
-  </si>
-  <si>
-    <t>Muốn xem các chương trình khuyến mãi và giảm giá của cửa hàng trên website để mua sản phẩm với giá ưu đãi</t>
-  </si>
-  <si>
-    <t>Muốn xem menu và giá cả của cửa hàng trên website để đưa ra quyết định mua hàng</t>
-  </si>
-  <si>
-    <t>Muốn tìm kiếm địa chỉ và giờ mở cửa của cửa hàng trên website để đến thưởng thức đồ ăn</t>
-  </si>
-  <si>
-    <t>Muốn xem lại lịch sử đơn hàng và thay đổi thông tin tài khoản trên website để quản lý dễ dàng hơn</t>
-  </si>
-  <si>
-    <t>Muốn gửi yêu cầu hỗ trợ trực tuyến để được giải đáp thắc mắc và giải quyết vấn đề kịp thời</t>
-  </si>
-  <si>
-    <t>Muốn theo dõi đơn hàng để theo dõi tình trạng đơn hàng</t>
-  </si>
-  <si>
-    <t>Muốn đánh giá và phản hồi về chất lượng dịch vụ trên website để giúp cửa hàng cải thiện</t>
-  </si>
-  <si>
     <t>Xem menu chi tiết sản phẩm</t>
   </si>
   <si>
@@ -152,51 +104,9 @@
     <t>Muốn đánh giá năng</t>
   </si>
   <si>
-    <t>Muốn tìm kiếm các hệ thống cửa hàng gần nhất với vị trí của Tôi để mua thức ăn</t>
-  </si>
-  <si>
     <t>Quản lý các đánh giá</t>
   </si>
   <si>
-    <t xml:space="preserve">Muốn thanh toán hóa đơn cho khách hàng để hoàn tất quá trình mua hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn quản lý đơn hàng để cho khách hàng tránh sự nhầm lẫn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn thống kê doanh số sản phẩm đã bán được để báo cáo với quản lý cửa hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn thống kê những hàng tồn kho để chuẩn bị cho ngày hôm sau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn chăm sóc khách hàng định kỳ để tạo mối quan hệ thân thiết với khách hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn quản lý website để xem được các khách hàng thân thiết </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn quản lý các thông tin sản phẩm để xem những món hàng bán chạy nhất của cửa hàng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn quản lý khách hàng đăng kí để tránh những tài khoản giả mạo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn quản lý các đánh giá của khách hàng để tối ưu được các ưu nhược điểm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn quản lý nhân viên của cửa hàng  để sắp xếp lịch/ ca làm việc cho nhân viên </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn quản lý thông tin sản phẩm để giúp nhân viên hiểu rõ thông tin của sản phẩm và đảm bảo nguồn cung đầy đủ  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muốn đánh giá năng lực của nhân viên để sắp xếp theo vị trí phù hợp </t>
-  </si>
-  <si>
-    <t>Muốn đăng nhập để đặt hàng, quản lý đơn hàng tốt hơn và có nhiều ưu đãi hơn, đăng xuất</t>
-  </si>
-  <si>
     <t>Đăng nhập/ Đăng xuất</t>
   </si>
   <si>
@@ -207,13 +117,94 @@
   </si>
   <si>
     <t>Quản lý các thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Là khách hàng chính thức tôi muốn đăng nhập để đặt hàng, quản lý đơn hàng tốt hơn và có nhiều ưu đãi hơn, đăng xuất</t>
+  </si>
+  <si>
+    <t>Là khách hàng vãng lai tôi muốn tìm kiếm các hệ thống cửa hàng gần nhất với vị trí của Tôi để mua thức ăn</t>
+  </si>
+  <si>
+    <t>Là khách hàng vãng lai tôi muốn liên hệ với cửa hàng thông qua website để đặt câu hỏi hoặc khiếu nại về sản phẩm và dịch vụ</t>
+  </si>
+  <si>
+    <t>Là khách hàng vãng lai tôi muốn đăng ký tài khoản trên website để nhận được các thông tin khuyến mãi và giảm giá</t>
+  </si>
+  <si>
+    <t>Là khách hàng vãng lai tôi muốn xem các chương trình khuyến mãi và giảm giá của cửa hàng trên website để mua sản phẩm với giá ưu đãi</t>
+  </si>
+  <si>
+    <t>Là khách hàng vãng lai tôi muốn xem menu và giá cả của cửa hàng trên website để đưa ra quyết định mua hàng</t>
+  </si>
+  <si>
+    <t>Là khách hàng vãng lai tôi muốn tìm kiếm địa chỉ và giờ mở cửa của cửa hàng trên website để đến thưởng thức đồ ăn</t>
+  </si>
+  <si>
+    <t>Là khách hàng chính thức tôi muốn tra cứu thông tin về chương trình khuyến mãi và ưu đãi trên website để lựa chọn sản phẩm phù hợp</t>
+  </si>
+  <si>
+    <t>Là khách hàng chính thức tôi muốn xem lại lịch sử đơn hàng và thay đổi thông tin tài khoản trên website để quản lý dễ dàng hơn</t>
+  </si>
+  <si>
+    <t>Là khách hàng chính thức tôi muốn gửi yêu cầu hỗ trợ trực tuyến để được giải đáp thắc mắc và giải quyết vấn đề kịp thời</t>
+  </si>
+  <si>
+    <t>Là khách hàng chính thức tôi muốn theo dõi đơn hàng để theo dõi tình trạng đơn hàng</t>
+  </si>
+  <si>
+    <t>Là khách hàng chính thức tôi muốn đánh giá và phản hồi về chất lượng dịch vụ trên website để giúp cửa hàng cải thiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên bán hàng tại quầy tôi muốn thanh toán hóa đơn cho khách hàng để hoàn tất quá trình mua hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên bán hàng tại quầy tôi muốn quản lý đơn hàng để cho khách hàng tránh sự nhầm lẫn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên bán hàng tại quầy tôi muốn thống kê doanh số sản phẩm đã bán được để báo cáo với quản lý cửa hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên bán hàng tại quầy tôi muốn thống kê những hàng tồn kho để chuẩn bị cho ngày hôm sau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên bán hàng tại quầy tôi muốn chăm sóc khách hàng định kỳ để tạo mối quan hệ thân thiết với khách hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên quản lý website tôi muốn quản lý website để xem được các khách hàng thân thiết </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên quản lý website tôi muốn quản lý các thông tin sản phẩm để xem những món hàng bán chạy nhất của cửa hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên quản lý website tôi muốn quản lý khách hàng đăng kí để tránh những tài khoản giả mạo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là nhân viên quản lý website tôi muốn quản lý các đánh giá của khách hàng để tối ưu được các ưu nhược điểm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là quản lý cửa hàng tôi muốn quản lý nhân viên của cửa hàng  để sắp xếp lịch/ ca làm việc cho nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là quản lý cửa hàng tôi muốn quản lý thông tin sản phẩm để giúp nhân viên hiểu rõ thông tin của sản phẩm và đảm bảo nguồn cung đầy đủ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là quản lý cửa hàng tôi muốn đánh giá năng lực của nhân viên để sắp xếp theo vị trí phù hợp </t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,22 +243,32 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -282,30 +283,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -340,6 +317,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -352,19 +338,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -681,56 +661,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="143.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="167.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -738,6 +723,7 @@
       <c r="E3" s="5">
         <v>3</v>
       </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
@@ -745,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -756,6 +742,7 @@
       <c r="E4" s="5">
         <v>3</v>
       </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
@@ -763,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -774,6 +761,7 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
@@ -781,10 +769,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -792,6 +780,7 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -799,10 +788,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
@@ -810,6 +799,7 @@
       <c r="E7" s="5">
         <v>3</v>
       </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -817,10 +807,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -828,43 +818,55 @@
       <c r="E8" s="5">
         <v>3</v>
       </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
-        <v>1</v>
+        <f>A9+1</f>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
-        <f>A10+1</f>
-        <v>2</v>
+        <f t="shared" ref="A11:A23" si="1">A10+1</f>
+        <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
@@ -872,373 +874,339 @@
       <c r="E11" s="5">
         <v>5</v>
       </c>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
-        <f t="shared" ref="A12:A26" si="1">A11+1</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5">
         <v>5</v>
       </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>2</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <v>3</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+    <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A16:E16"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Đánh giá đề tài lần 1- 2.xlsx
+++ b/Đánh giá đề tài lần 1- 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\CNPMNC-Nhóm 3\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A974B-AA05-4B3E-917E-7C26993B7CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3158A15-C259-4601-A690-D3FCE5401884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>ID Story</t>
   </si>
@@ -198,13 +198,28 @@
   </si>
   <si>
     <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Là khách hàng vãng lai</t>
+  </si>
+  <si>
+    <t>Là khách hàng chính thức</t>
+  </si>
+  <si>
+    <t>Là nhân viên bán hàng tại quầy</t>
+  </si>
+  <si>
+    <t>Là nhân viên quản lý website</t>
+  </si>
+  <si>
+    <t>Là quản lý cửa hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,14 +261,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -338,13 +345,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,28 +675,28 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="167.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="165.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -703,12 +714,12 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -717,16 +728,18 @@
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -736,16 +749,18 @@
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10"/>
+      <c r="E4" s="12">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="12">
         <f t="shared" ref="A5:A8" si="0">A4+1</f>
         <v>3</v>
       </c>
@@ -755,16 +770,18 @@
       <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -774,16 +791,18 @@
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -793,16 +812,18 @@
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -812,16 +833,18 @@
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10"/>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="12">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -830,16 +853,18 @@
       <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="12">
         <f>A9+1</f>
         <v>2</v>
       </c>
@@ -849,16 +874,18 @@
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
         <v>5</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="12">
         <f t="shared" ref="A11:A23" si="1">A10+1</f>
         <v>3</v>
       </c>
@@ -868,16 +895,18 @@
       <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
         <v>5</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -887,16 +916,18 @@
       <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
         <v>8</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -906,16 +937,18 @@
       <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
         <v>5</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -925,16 +958,18 @@
       <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12">
         <v>5</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="12">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -943,16 +978,18 @@
       <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -962,16 +999,18 @@
       <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -981,16 +1020,18 @@
       <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="12">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12">
         <v>8</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1000,16 +1041,18 @@
       <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12">
         <v>8</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1019,16 +1062,18 @@
       <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12">
         <v>5</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="12">
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1037,16 +1082,18 @@
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1056,16 +1103,18 @@
       <c r="C21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1075,16 +1124,18 @@
       <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1094,16 +1145,18 @@
       <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="12">
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1112,16 +1165,18 @@
       <c r="C24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+      <c r="A25" s="13">
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1130,34 +1185,38 @@
       <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>3</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="12">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12">
         <v>5</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1184,7 +1243,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>

--- a/Đánh giá đề tài lần 1- 2.xlsx
+++ b/Đánh giá đề tài lần 1- 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Nhat Hao\Downloads\CÔNG NGHỆ PHẦN MỀM NÂNG CAO\CNPMNC-Nhóm 3\CNPMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3158A15-C259-4601-A690-D3FCE5401884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017F4CFE-FF05-4982-869C-400484557D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,17 +675,17 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="165.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="177.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
